--- a/testData/Userdata.xlsx
+++ b/testData/Userdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\3D Objects\automation framework\AutomationFramework\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\3D Objects\automation framework\RestAssuredAutomation\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C1B9A5-555C-4003-A4C2-3BE2B39D6B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650FBE6B-E7D0-478A-9B21-94FEF977612F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,7 +471,7 @@
     <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
